--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,25 +477,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1:00-2:00</t>
+          <t>8:45-11:30, 15:00-16:30</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>做测试。本阶段总计1.00h</t>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025.01.02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9:45-11:30, 14:15-16:15, 19:00-21:30</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025.01.03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8:50-9:35, 15:40-16:55, 17:20-17:50</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>张宇线代强化一刷。本阶段总计11.25h</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025.01.04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8:30-11:30, 14:45-17:15, 18:00-19:30</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>张宇概率论强化一刷。本阶段总计8.75h</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025.01.05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:00-17:15, 17:45-18:30</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,56 @@
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025.01.06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.16667</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7:40-11:40, 14:20-17:00, 17:30-18:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025.01.07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10:45-11:30</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +653,35 @@
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025.01.08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8:35-10:35, 14:15-16:45, 17:30-19:15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>高数武忠祥基础篇。本阶段总计17.67h</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,281 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025.01.09</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9:30-11:00, 14:30-16:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025.01.10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 14:00-17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025.01.11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:25-16:55</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025.01.12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8:20-10:25, 10:25-11:05, 17:45-19:45</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025.01.13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9:30-11:30</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025.01.14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:55-11:45, 15:30-18:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025.01.15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.16667</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9:20-11:30, 14:00-15:45, 15:45-17:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025.01.16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9:15-11:00, 16:30-18:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025.01.17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.66667</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9:15-10:45, 11:50-12:30, 15:00-17:30</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025.01.18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.41667</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9:15-11:10, 14:45-18:15</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025.01.19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.91667</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>9:15-11:00, 14:50-17:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,181 @@
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025.01.20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.83333</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>9:00-11:45, 14:35-15:45, 16:20-18:10, 21:55-23:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025.01.21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21:00-22:45</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025.01.22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9:30-10:45, 14:30-14:50</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025.01.23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9:10-10:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025.01.24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:15-16:30</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025.01.25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>9:20-12:15, 14:45-17:30, 19:00-19:30, 20:10-22:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025.01.26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20:00-20:40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,7 +905,11 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇高数。本阶段总计35.92h</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1105,7 +1109,11 @@
       <c r="F26" t="n">
         <v>2.33333</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>880高数。本阶段总计31.83h</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1131,6 +1139,497 @@
         <v>0.66667</v>
       </c>
       <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025.01.27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9:20-10:30, 15:20-15:50</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025.01.30</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>9:30-10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025.01.31</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>9:00-10:15</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025.02.01</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14:30-17:15</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025.02.02</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9:45-11:00, 14:55-15:25, 20:45-22:15</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025.02.03</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:40-17:20, 21:40-22:30</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025.02.04</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>9:45-11:20, 14:55-15:40, 22:20-23:05</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇线代。本阶段总计15.67h</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025.02.05</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.08333</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9:50-11:05, 15:00-15:50</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025.02.06</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10:05-11:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025.02.07</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5.08333</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9:40-12:00, 15:00-17:15, 22:30-23:00</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>880线代。本阶段总计7.58h</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025.02.08</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.41667</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>9:50-11:00, 14:45-16:50, 21:50-23:00</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.08333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025.02.09</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>9:45-11:05, 14:30-15:40</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>李王武全书提高篇概率。本阶段总计7.42h</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025.02.10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4.16667</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8:20-9:40, 10:30-11:40, 20:00-21:40</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025.02.11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7.16667</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>8:30-11:15, 14:45-16:00, 20:00-23:10</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025.02.12</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9:15-10:10, 17:30-18:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>880概率。本阶段总计12.25h</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025.02.13</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10:15-11:00, 16:05-16:35</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025.02.14</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4.83334</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>9:20-10:45, 14:00-15:45, 19:40-21:20</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025.02.15</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10:00-11:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025.02.16</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10:50-11:35</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,6 +1631,31 @@
       </c>
       <c r="G46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025.02.17</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>8:15-9:45, 10:20-11:45, 14:10-15:35, 17:20-19:30</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,6 +1656,60 @@
       </c>
       <c r="G47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025.02.18</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17:35-20:40</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025.02.19</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>6.16667</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9:15-11:45, 13:55-14:35, 14:35-15:50, 17:30-19:15</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>余炳森1000基础篇。本阶段总计21.08h</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1710,6 +1710,56 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025.02.20</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>17:30-18:10</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025.02.21</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4.08333</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14:10-17:00, 17:30-18:45</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,6 +1760,81 @@
       </c>
       <c r="G51" t="inlineStr"/>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025.02.22</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>17:35-18:00</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025.02.23</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.66667</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>10:20-11:40, 14:10-16:20, 17:45-18:55</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025.02.24</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7.58334</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>8:30-11:40, 14:00-15:35, 17:20-20:10</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,6 +1835,81 @@
       </c>
       <c r="G54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025.02.25</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3.16666</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>8:55-9:30, 18:00-20:35</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025.02.26</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7.08333</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>8:45-11:35, 13:55-15:45, 17:40-20:05</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025.02.27</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.83333</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10:10-11:40, 14:30-16:15, 17:50-20:25</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,6 +1910,56 @@
       </c>
       <c r="G57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025.02.28</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>4.08333</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10:15-11:35, 14:15-16:00, 17:50-18:50</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025.03.01</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.58333</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15:05-16:55, 19:00-20:45</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,6 +1960,106 @@
       </c>
       <c r="G59" t="inlineStr"/>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025.03.02</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15:00-16:20, 20:00-21:30</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025.03.03</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4.91667</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8:45-11:40, 13:50-15:50</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025.03.04</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15:55-16:45, 18:00-19:25</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025.03.05</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6.58333</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9:00-11:40, 14:00-15:35, 17:45-20:05</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,7 +1933,11 @@
       <c r="F58" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>余炳森1000提高篇。本阶段总计40.58h</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2059,6 +2063,185 @@
         <v>2.33333</v>
       </c>
       <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025.03.06</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3.58334</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>15:05-16:45, 17:35-19:30</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025.03.07</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4.41667</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>13:40-16:20, 17:45-19:30</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025.03.08</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>14:10-16:55, 17:45-19:15</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025.03.09</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4.83334</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>14:20-16:45, 17:45-20:10</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025.03.10</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>9:25-11:40, 13:50-15:50</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025.03.11</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3.91666</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>15:55-17:00, 17:45-20:35</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025.03.12</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>5.58333</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8:30-11:35, 14:00-15:30, 17:45-18:45</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>张宇基础30讲高数。本阶段总计51.00h</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2243,6 +2243,56 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025.03.13</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9:55-11:45, 14:00-14:55, 15:15-15:30</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025.03.14</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14:30-16:30, 17:45-18:15</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,6 +2293,393 @@
       </c>
       <c r="G72" t="inlineStr"/>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025.03.15</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17:45-18:45</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025.03.16</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4.16667</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>15:00-17:00, 17:45-19:55</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>张宇基础30讲线代。本阶段总计10.67h</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025.03.17</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>13:55-17:10</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025.03.18</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>8:45-11:40, 15:10-16:00, 17:45-19:30</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>张宇基础30讲概率。本阶段总计8.75h</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025.03.19</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>14:00-16:00, 17:55-19:20</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025.03.20</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>9:50-11:40</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025.03.21</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9:45-11:10</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025.03.22</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>17:15-18:50</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025.03.25</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15:00-16:00, 17:30-19:10, 19:45-20:20</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025.03.26</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>14:00-15:50, 17:45-21:10</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025.03.27</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6.16667</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9:50-11:45, 14:20-15:25, 15:50-17:20, 18:15-19:55</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025.03.28</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5.66666</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14:10-17:00, 17:50-20:40</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025.03.29</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>4.16667</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 18:00-19:40</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025.03.30</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>14:20-16:50, 17:30-19:45</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>武忠祥高数强化。本阶段总计37.50h</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025.03.31</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>8</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>9:10-11:40, 13:55-15:55, 17:30-21:00</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2680,6 +2680,289 @@
       </c>
       <c r="G87" t="inlineStr"/>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025.04.01</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6.16666</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>8:55-11:45, 18:00-21:20</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025.04.02</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4.66667</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>8:50-11:45, 13:55-14:45, 14:45-15:40</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>李永乐线性代数。本阶段总计17.92h</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025.04.03</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>9:45-11:40, 14:05-15:25, 15:50-17:20, 18:20-18:30, 18:30-20:20</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>王式安概率。本阶段总计5.83h</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025.04.04</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>17:45-18:30</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025.04.05</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>14:25-16:00, 17:30-18:30</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025.04.06</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14:30-15:55, 18:00-19:15</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025.04.07</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6.41666</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>8:50-11:40, 14:00-14:55, 14:55-15:50, 18:00-19:45</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025.04.08</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4.66667</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>8:00-9:25, 17:35-20:50</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025.04.09</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2.33334</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>8:55-9:35, 14:00-15:40</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025.04.10</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>7.41667</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8:30-9:40, 14:20-15:30, 15:50-17:30, 18:05-19:00, 19:00-21:30</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025.04.11</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>16:15-16:50, 19:00-21:00</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,6 +2963,331 @@
       </c>
       <c r="G98" t="inlineStr"/>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025.04.12</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>17:30-19:00</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025.04.13</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>14:30-15:55, 18:00-19:05</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025.04.14</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>14:00-17:20, 18:10-18:50</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025.04.15</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5.41667</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>7:00-9:40, 14:50-16:00, 18:00-19:05, 20:30-21:00</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025.04.16</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4.33333</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>14:00-17:20, 18:05-19:05</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025.04.17</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3.91666</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>14:00-15:20, 15:55-16:40, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.08333</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025.04.18</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>14:40-16:00</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025.04.19</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>6.16667</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>9:05-10:20, 14:25-17:05, 17:40-19:55</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025.04.20</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>8:45-10:30, 14:05-17:00, 19:25-20:00</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025.04.21</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>14:10-17:25, 18:15-21:45</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025.04.22</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>18:05-20:00</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025.04.23</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3.91667</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>14:55-17:20, 18:00-19:30</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025.04.24</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>17:30-18:15</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3288,6 +3288,160 @@
       </c>
       <c r="G111" t="inlineStr"/>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025.04.25</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>7:40-9:55</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025.04.26</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>14:25-17:00</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025.04.27</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>14:20-17:00</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025.04.28</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>18:30-21:25</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025.04.29</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2.66666</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>8:50-9:40, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025.04.30</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2.91666</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>14:00-15:05, 15:30-17:20</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.91666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>李正元线性代数。本阶段总计93.17h</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3442,6 +3442,651 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025.05.01</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4.33333</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>9:30-11:30, 16:30-17:30, 20:25-21:45</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025.05.02</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>19:45-21:55</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025.05.03</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2.66666</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>9:50-11:40, 15:25-16:00, 21:15-21:30</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025.05.04</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5.66667</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>10:20-11:45, 14:15-16:10, 18:20-18:45, 19:30-21:25</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025.05.05</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>7:50-11:00</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025.05.06</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4.41666</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>8:10-9:30, 14:45-17:50</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025.05.07</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>6.66667</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>13:35-17:50, 18:35-21:00</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.91667</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025.05.08</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6.08333</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>9:00-9:50, 13:50-17:30, 19:15-20:50</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.66667</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>李正元概率。本阶段总计35.42h</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025.05.09</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>14:25-17:10</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025.05.10</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>6.83333</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8:30-9:30, 14:10-17:30, 18:00-20:30</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025.05.11</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4.33334</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>8:30-9:40, 14:35-15:55, 16:00-16:50, 18:00-19:00</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>武忠祥基础高数。本阶段总计15.50h</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025.05.12</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>16:25-18:00, 18:35-20:05</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025.05.13</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4.24999</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>8:25-9:30, 14:40-17:50</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025.05.14</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3.33333</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>14:30-17:50</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025.05.15</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4.91667</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>9:10-9:45, 14:50-15:30, 15:30-16:45, 18:00-20:25</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>杨超线代。本阶段总计11.92h</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025.05.16</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>14:30-17:00</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025.05.17</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4.83333</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>11:00-11:20, 14:15-17:05, 17:55-19:35</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025.05.18</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5.58333</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14:10-17:10, 18:05-20:40</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>杨超概率。本阶段总计16.58h</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025.05.19</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>6.16667</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>14:15-18:00, 18:55-21:20</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025.05.20</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>7.41667</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>7:15-9:40, 14:25-17:15, 18:20-20:30</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025.05.21</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>5.16666</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>14:25-16:10, 16:25-18:00, 18:40-20:30</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025.05.22</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>9:10-9:40, 14:35-17:30</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>汤家凤高数。本阶段总计22.17h</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025.05.23</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>8:45-11:10, 14:25-16:00</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2.41667</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025.05.24</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5.91667</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>14:10-17:10, 17:55-20:50</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025.05.25</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3.58333</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>10:00-11:05, 16:40-17:20, 18:10-20:00</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="G142" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3320,15 +3320,15 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.58333</v>
+        <v>4.33333</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14:25-17:00</t>
+          <t>8:45-10:30, 14:25-17:00</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E113" t="n">
         <v>2.58333</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>李正元线性代数。本阶段总计93.17h</t>
+          <t>李正元线性代数。本阶段总计94.92h</t>
         </is>
       </c>
     </row>
@@ -4086,6 +4086,456 @@
         <v>1.83333</v>
       </c>
       <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025.06.03</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>18:25-21:10</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025.06.04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>13:55-17:05</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025.06.05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5.08333</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>14:25-17:30, 18:50-20:50</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025.06.06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>14:30-17:25</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025.06.07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4.66667</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>14:20-17:15, 18:05-19:50</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025.06.08</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>18:55-19:40</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025.06.09</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4.83333</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>14:35-17:20, 18:45-20:50</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2.08333</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025.06.10</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>5.58334</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>10:45-11:25, 14:40-17:25, 18:55-21:05</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025.06.11</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>8:30-9:30</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025.06.12</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3.83333</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>14:45-17:30, 18:45-19:50</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025.06.13</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>16:30-17:25, 19:10-20:00</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025.06.14</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>9:40-10:30</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025.06.15</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>18:30-20:05</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025.06.16</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4.16667</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>14:30-17:00, 18:50-20:30</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025.06.17</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>5.16666</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>14:45-17:20, 18:40-21:15</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025.06.18</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>6.33333</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>10:40-11:30, 14:35-17:30, 18:40-21:15</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025.06.19</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>10:15-11:25, 14:35-17:25, 18:50-20:05</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025.06.20</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>10:15-11:25, 14:30-17:30, 18:45-19:50</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4537,6 +4537,193 @@
       </c>
       <c r="G160" t="inlineStr"/>
     </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025.06.21</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>10:15-11:45, 14:15-17:15, 18:00-19:15</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>武忠祥高数二刷。本阶段总计84.17h</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025.06.22</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>9:45-11:05, 18:15-20:00</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025.06.23</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>6.08334</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>10:30-11:30, 14:35-17:30, 18:50-21:00</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>张宇1000高数。本阶段总计9.17h</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025.06.24</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4.16667</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10:20-11:30, 16:00-17:25, 19:00-20:35</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025.06.25</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>5.16667</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>10:40-11:30, 14:35-17:30, 18:45-20:10</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.91667</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025.06.26</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>10:55-11:25, 14:35-17:25, 18:50-20:45</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>660一刷。本阶段总计14.58h</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025.06.27</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>14:30-17:30</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,6 +4724,814 @@
       </c>
       <c r="G167" t="inlineStr"/>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025.06.28</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>10:45-11:15</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025.06.29</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>15:30-16:10</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025.06.30</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>15:40-17:30</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025.07.01</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>15:35-17:30</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025.07.03</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>20:55-21:35</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025.07.04</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1.83334</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>17:20-17:50, 20:40-22:00</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.16667</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025.07.05</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>4.08333</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>15:15-18:45, 20:15-20:50</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>考掌一元微积分。本阶段总计14.50h</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025.07.06</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4.41666</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>10:35-11:40, 14:25-17:45</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025.07.07</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>8:25-10:10, 15:25-16:50</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025.07.08</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4.33333</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>8:45-10:00, 14:40-17:45</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025.07.09</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15:55-17:00</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025.07.10</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>14:15-17:20</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025.07.11</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>10:35-11:25, 13:50-16:30</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025.07.12</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>4.08333</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>9:10-11:40, 14:50-16:25</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.58333</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025.07.13</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>21:00-21:30</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025.07.15</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>9:05-11:20, 15:00-16:00</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025.07.16</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>21:15-21:30</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025.07.17</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>9:05-11:45, 21:25-21:45</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025.07.18</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>15:25-17:20</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025.07.19</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>16:20-17:35</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.08333</v>
+      </c>
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025.07.20</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>8:10-8:30, 16:05-17:30, 21:10-21:40</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025.07.21</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>7.33334</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>8:25-11:40, 14:05-17:30, 21:10-21:50</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025.07.22</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2.08334</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>9:00-10:25, 17:15-17:50, 20:55-21:00</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025.07.23</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>5.33334</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14:10-17:20, 18:50-21:00</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.16667</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025.07.24</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>9:30-11:40</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2.16667</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025.07.25</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>9:15-11:15</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025.07.26</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>20:50-21:20</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025.07.27</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>9:00-11:40, 20:50-21:10</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>2.66667</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025.07.28</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>8:35-12:00, 21:00-22:05</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025.07.29</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>8:45-11:35, 19:20-19:35, 20:00-21:10</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>2.83333</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.41667</v>
+      </c>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025.07.30</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>11:20-12:10, 14:25-15:20, 21:00-22:00</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0.66667</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>考掌微分方程级数。本阶段总计70.00h</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025.07.31</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>14:30-16:50</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.33333</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/P-学习时长-数学2025.xlsx
+++ b/data/xlsx/P-学习时长-数学2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5532,6 +5532,560 @@
       </c>
       <c r="G199" t="inlineStr"/>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025.08.01</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.66666</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>9:50-10:10, 19:10-19:30</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025.08.02</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>9:45-11:50, 14:10-14:40, 21:00-21:25</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2.08333</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025.08.03</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3.91667</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>8:40-11:40, 20:50-21:45</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>3</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="G202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025.08.04</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>8:30-12:00</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025.08.05</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>9:30-11:10</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025.08.06</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2.08334</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>16:05-17:15, 20:30-21:25</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.16667</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.91667</v>
+      </c>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025.08.07</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>21:10-21:30</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025.08.08</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>9:10-10:00</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.83333</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025.08.10</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3.08333</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>9:00-11:30, 20:50-21:25</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="G208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025.08.11</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1.83333</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>10:00-11:30, 20:35-20:55</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025.08.12</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>14:00-15:30, 21:15-22:15</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025.08.13</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1.33333</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>16:15-17:15, 21:00-21:20</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.33333</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025.08.14</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2.08334</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>11:20-11:45, 19:50-21:30</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025.08.15</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>8:45-11:30, 19:50-21:20</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025.08.16</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>20:55-21:25</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025.08.17</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>3.41667</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>8:30-8:55, 14:30-17:30</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.41667</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025.08.18</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>9:15-11:15</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025.08.19</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>15:30-16:45</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025.08.20</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2.58333</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>15:10-17:10, 20:45-21:20</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025.08.21</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>16:15-17:20</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.08333</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025.08.22</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>3.58334</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>9:50-11:45, 14:40-16:20</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1.91667</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025.08.23</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>9:55-10:30, 14:20-16:00</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.58333</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.66667</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>考掌+990+李正元139+王式安严选题概统。本阶段总计50.08h</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
